--- a/delta2/lib_patterns/pid-lolwin.xlsx
+++ b/delta2/lib_patterns/pid-lolwin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773A2CD0-826B-9E4D-8CBB-3B3532FA06A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5F8D91-762A-3145-A9F8-F94E97A80467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="-21100" windowWidth="38320" windowHeight="21100" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="lolwin" sheetId="12" r:id="rId1"/>
@@ -2760,8 +2760,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4681C3AD-C935-F043-82BB-FC0201BB7C44}" name="Table134910" displayName="Table134910" ref="A1:H231" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="A1:H231" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H221">
-    <sortCondition ref="A1:A221"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H231">
+    <sortCondition ref="A1:A231"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6CF03195-25AB-C54D-B6B1-C2FBDC848BFA}" name="delta_pid" dataDxfId="18"/>
@@ -3182,8 +3182,8 @@
   <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6376,325 +6376,325 @@
       </c>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>818</v>
+        <v>335</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E135" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="F135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>817</v>
+        <v>839</v>
       </c>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>809</v>
+        <v>336</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>144</v>
+        <v>297</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>808</v>
+        <v>841</v>
       </c>
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>812</v>
+        <v>337</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>813</v>
+        <v>844</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>811</v>
+        <v>845</v>
       </c>
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>543</v>
+        <v>338</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>142</v>
+        <v>843</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>143</v>
+        <v>846</v>
       </c>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>544</v>
+        <v>339</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>148</v>
+        <v>847</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>146</v>
+        <v>850</v>
       </c>
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>545</v>
+        <v>340</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>149</v>
+        <v>848</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H140" s="1"/>
-    </row>
-    <row r="141" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="E142" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H141" s="1"/>
-    </row>
-    <row r="142" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H142" s="1"/>
-    </row>
-    <row r="143" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E143" s="1" t="s">
-        <v>59</v>
+        <v>357</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>182</v>
+        <v>811</v>
       </c>
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="H146" s="1"/>
     </row>
     <row r="147" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="H147" s="1"/>
     </row>
     <row r="148" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>58</v>
@@ -6706,19 +6706,19 @@
         <v>5</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H148" s="1"/>
     </row>
     <row r="149" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>58</v>
@@ -6730,19 +6730,19 @@
         <v>5</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H149" s="1"/>
     </row>
     <row r="150" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>58</v>
@@ -6754,19 +6754,19 @@
         <v>5</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>58</v>
@@ -6778,19 +6778,19 @@
         <v>5</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H151" s="1"/>
     </row>
     <row r="152" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>58</v>
@@ -6802,19 +6802,19 @@
         <v>5</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H152" s="1"/>
     </row>
     <row r="153" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>58</v>
@@ -6826,19 +6826,19 @@
         <v>5</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H153" s="1"/>
     </row>
     <row r="154" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>58</v>
@@ -6850,19 +6850,19 @@
         <v>5</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H154" s="1"/>
     </row>
     <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>58</v>
@@ -6874,19 +6874,19 @@
         <v>5</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H155" s="1"/>
     </row>
     <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>58</v>
@@ -6898,19 +6898,19 @@
         <v>5</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H156" s="1"/>
     </row>
     <row r="157" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>58</v>
@@ -6922,19 +6922,19 @@
         <v>5</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H157" s="1"/>
     </row>
     <row r="158" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>58</v>
@@ -6946,19 +6946,19 @@
         <v>5</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H158" s="1"/>
     </row>
     <row r="159" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>58</v>
@@ -6970,79 +6970,91 @@
         <v>5</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="H159" s="1"/>
     </row>
     <row r="160" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="H160" s="1"/>
     </row>
     <row r="161" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F161" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="H161" s="1"/>
     </row>
     <row r="162" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F162" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>58</v>
@@ -7054,183 +7066,171 @@
         <v>5</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="H163" s="1"/>
     </row>
     <row r="164" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H164" s="1"/>
     </row>
     <row r="165" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>751</v>
+        <v>564</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>753</v>
+        <v>188</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>455</v>
+        <v>58</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>752</v>
+        <v>59</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>750</v>
+        <v>187</v>
       </c>
       <c r="H165" s="1"/>
     </row>
     <row r="166" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>755</v>
+        <v>565</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>752</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
       <c r="F166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>754</v>
+        <v>189</v>
       </c>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>756</v>
+        <v>566</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>752</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
       <c r="F167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>760</v>
+        <v>195</v>
       </c>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>758</v>
+        <v>567</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>752</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
       <c r="F168" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>770</v>
+        <v>194</v>
       </c>
       <c r="H168" s="1"/>
     </row>
     <row r="169" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>759</v>
+        <v>568</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>775</v>
+        <v>193</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>455</v>
+        <v>58</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>752</v>
+        <v>59</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>774</v>
+        <v>196</v>
       </c>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>764</v>
+        <v>569</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>752</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
       <c r="F170" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>763</v>
+        <v>197</v>
       </c>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>455</v>
@@ -7242,19 +7242,19 @@
         <v>5</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>455</v>
@@ -7266,19 +7266,19 @@
         <v>5</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>783</v>
+        <v>754</v>
       </c>
       <c r="H172" s="1"/>
     </row>
     <row r="173" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>455</v>
@@ -7290,19 +7290,19 @@
         <v>5</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="H173" s="1"/>
     </row>
     <row r="174" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>455</v>
@@ -7314,19 +7314,19 @@
         <v>5</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="H174" s="1"/>
     </row>
     <row r="175" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>455</v>
@@ -7338,19 +7338,19 @@
         <v>5</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>806</v>
+        <v>774</v>
       </c>
       <c r="H175" s="1"/>
     </row>
     <row r="176" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>455</v>
@@ -7362,19 +7362,19 @@
         <v>5</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>455</v>
@@ -7386,19 +7386,19 @@
         <v>5</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>455</v>
@@ -7410,305 +7410,305 @@
         <v>5</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H178" s="1"/>
     </row>
     <row r="179" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>815</v>
+        <v>778</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>816</v>
+        <v>773</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E179" s="1"/>
+        <v>455</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>752</v>
+      </c>
       <c r="F179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>814</v>
+        <v>772</v>
       </c>
       <c r="H179" s="1"/>
     </row>
     <row r="180" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>144</v>
+        <v>455</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>357</v>
+        <v>752</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="H180" s="1"/>
     </row>
     <row r="181" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>144</v>
+        <v>455</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>357</v>
+        <v>752</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="H181" s="1"/>
     </row>
     <row r="182" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>144</v>
+        <v>455</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>357</v>
+        <v>752</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>144</v>
+        <v>455</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>357</v>
+        <v>752</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="H183" s="1"/>
     </row>
     <row r="184" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>144</v>
+        <v>455</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>357</v>
+        <v>752</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="H184" s="1"/>
     </row>
     <row r="185" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>469</v>
+        <v>815</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>470</v>
+        <v>816</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E185" s="1"/>
       <c r="F185" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>468</v>
+        <v>814</v>
       </c>
       <c r="H185" s="1"/>
     </row>
     <row r="186" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>472</v>
+        <v>793</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>473</v>
+        <v>794</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>59</v>
+        <v>357</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>471</v>
+        <v>792</v>
       </c>
       <c r="H186" s="1"/>
     </row>
     <row r="187" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>480</v>
+        <v>796</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>474</v>
+        <v>797</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>59</v>
+        <v>357</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>475</v>
+        <v>795</v>
       </c>
       <c r="H187" s="1"/>
     </row>
     <row r="188" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>481</v>
+        <v>798</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>10</v>
+        <v>680</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>478</v>
+        <v>799</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>59</v>
+        <v>357</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>476</v>
+        <v>805</v>
       </c>
       <c r="H188" s="1"/>
     </row>
     <row r="189" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>482</v>
+        <v>801</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>479</v>
+        <v>802</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>59</v>
+        <v>357</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>477</v>
+        <v>800</v>
       </c>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>485</v>
+        <v>803</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>487</v>
+        <v>804</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>59</v>
+        <v>357</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>483</v>
+        <v>807</v>
       </c>
       <c r="H190" s="1"/>
     </row>
     <row r="191" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>58</v>
@@ -7720,19 +7720,19 @@
         <v>5</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="H191" s="1"/>
     </row>
     <row r="192" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>58</v>
@@ -7744,19 +7744,19 @@
         <v>5</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="H192" s="1"/>
     </row>
     <row r="193" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>58</v>
@@ -7768,19 +7768,19 @@
         <v>5</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="H193" s="1"/>
     </row>
     <row r="194" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>58</v>
@@ -7792,19 +7792,19 @@
         <v>5</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="H194" s="1"/>
     </row>
     <row r="195" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>58</v>
@@ -7816,19 +7816,19 @@
         <v>5</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="H195" s="1"/>
     </row>
     <row r="196" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>58</v>
@@ -7840,19 +7840,19 @@
         <v>5</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="H196" s="1"/>
     </row>
     <row r="197" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>58</v>
@@ -7864,19 +7864,19 @@
         <v>5</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="H197" s="1"/>
     </row>
     <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>58</v>
@@ -7888,19 +7888,19 @@
         <v>5</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="H198" s="1"/>
     </row>
     <row r="199" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>58</v>
@@ -7912,19 +7912,19 @@
         <v>5</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="H199" s="1"/>
     </row>
     <row r="200" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>58</v>
@@ -7936,19 +7936,19 @@
         <v>5</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="H200" s="1"/>
     </row>
     <row r="201" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>58</v>
@@ -7960,19 +7960,19 @@
         <v>5</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H201" s="1"/>
     </row>
     <row r="202" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>58</v>
@@ -7984,19 +7984,19 @@
         <v>5</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="H202" s="1"/>
     </row>
     <row r="203" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>58</v>
@@ -8008,19 +8008,19 @@
         <v>5</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="H203" s="1"/>
     </row>
     <row r="204" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>58</v>
@@ -8032,19 +8032,19 @@
         <v>5</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="H204" s="1"/>
     </row>
     <row r="205" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>58</v>
@@ -8056,19 +8056,19 @@
         <v>5</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="H205" s="1"/>
     </row>
     <row r="206" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>58</v>
@@ -8080,19 +8080,19 @@
         <v>5</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="H206" s="1"/>
     </row>
     <row r="207" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>58</v>
@@ -8104,19 +8104,19 @@
         <v>5</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="H207" s="1"/>
     </row>
     <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>58</v>
@@ -8128,19 +8128,19 @@
         <v>5</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="H208" s="1"/>
     </row>
     <row r="209" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>58</v>
@@ -8152,39 +8152,43 @@
         <v>5</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="H209" s="1"/>
     </row>
     <row r="210" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F210" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="H210" s="1"/>
     </row>
     <row r="211" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>447</v>
+        <v>530</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>448</v>
+        <v>528</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>58</v>
@@ -8196,217 +8200,225 @@
         <v>5</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="H211" s="1"/>
     </row>
     <row r="212" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E212" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F212" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>443</v>
+        <v>531</v>
       </c>
       <c r="H212" s="1"/>
     </row>
     <row r="213" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>446</v>
+        <v>528</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E213" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F213" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>445</v>
+        <v>532</v>
       </c>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>633</v>
+        <v>537</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>425</v>
+        <v>539</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E214" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F214" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>424</v>
+        <v>535</v>
       </c>
       <c r="H214" s="1"/>
     </row>
     <row r="215" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>634</v>
+        <v>538</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>426</v>
+        <v>539</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E215" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F215" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>429</v>
+        <v>536</v>
       </c>
       <c r="H215" s="1"/>
     </row>
     <row r="216" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>635</v>
+        <v>540</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>428</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>433</v>
+        <v>542</v>
       </c>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>636</v>
+        <v>447</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E217" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F217" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="H217" s="1"/>
     </row>
     <row r="218" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>638</v>
+        <v>571</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H220" s="1"/>
     </row>
     <row r="221" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>428</v>
@@ -8416,151 +8428,139 @@
         <v>5</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>335</v>
+        <v>635</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>838</v>
+        <v>430</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="E222" s="1"/>
       <c r="F222" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>839</v>
+        <v>433</v>
       </c>
       <c r="H222" s="1"/>
     </row>
     <row r="223" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>336</v>
+        <v>636</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>842</v>
+        <v>431</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="E223" s="1"/>
       <c r="F223" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>841</v>
+        <v>432</v>
       </c>
       <c r="H223" s="1"/>
     </row>
     <row r="224" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>337</v>
+        <v>637</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>844</v>
+        <v>435</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="E224" s="1"/>
       <c r="F224" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>845</v>
+        <v>434</v>
       </c>
       <c r="H224" s="1"/>
     </row>
     <row r="225" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>338</v>
+        <v>638</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>843</v>
+        <v>437</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="E225" s="1"/>
       <c r="F225" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>846</v>
+        <v>436</v>
       </c>
       <c r="H225" s="1"/>
     </row>
     <row r="226" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>339</v>
+        <v>639</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>847</v>
+        <v>439</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="E226" s="1"/>
       <c r="F226" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>850</v>
+        <v>438</v>
       </c>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>848</v>
+        <v>441</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="E227" s="1"/>
       <c r="F227" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>849</v>
+        <v>440</v>
       </c>
       <c r="H227" s="1"/>
     </row>
@@ -8793,7 +8793,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:H40"/>
     </sheetView>
   </sheetViews>
@@ -10718,7 +10718,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:H28"/>
     </sheetView>
   </sheetViews>

--- a/delta2/lib_patterns/pid-lolwin.xlsx
+++ b/delta2/lib_patterns/pid-lolwin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5F8D91-762A-3145-A9F8-F94E97A80467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46A2C3B-21CA-884C-ABD3-81B7A15FB078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="lolwin" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="1044">
   <si>
     <t>delta_pid</t>
   </si>
@@ -2422,39 +2422,24 @@
     <t>(process_name EQUALS  'rundll32.exe') AND (process_cmdline CONTAINS 'minidump')</t>
   </si>
   <si>
-    <t>rundll-pid0001</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rundll Called MiniDump </t>
   </si>
   <si>
     <t>(file_name EQUALS  'rundll32.exe') AND (process_cmdline CONTAINS [ 'minidumpw' OR '#24' OR '-24'])</t>
   </si>
   <si>
-    <t>rundll-pid0002</t>
-  </si>
-  <si>
     <t>Rundll Called MiniDumpW</t>
   </si>
   <si>
-    <t>rundll-pid0003</t>
-  </si>
-  <si>
     <t>Rundll Created DMP File</t>
   </si>
   <si>
     <t>(file_name EQUALS 'rundll32.exe') AND (process_cmdline CONTAINS ['keymgr' AND 'KRShowKeyMgr'])</t>
   </si>
   <si>
-    <t>rundll-pid0004</t>
-  </si>
-  <si>
     <t>Rundll Dump Credential Manager</t>
   </si>
   <si>
-    <t>rundll-pid0005</t>
-  </si>
-  <si>
     <t>Rundll Dump LSASS MiniDump</t>
   </si>
   <si>
@@ -2497,9 +2482,6 @@
     <t>(process_cmdline CONTAINS  'query user' ) AND (account EQUALS 'network service')</t>
   </si>
   <si>
-    <t>quser-pid0001</t>
-  </si>
-  <si>
     <t>Quser From Network Service Account</t>
   </si>
   <si>
@@ -2629,10 +2611,570 @@
     <t>WMIC &gt; List Brief</t>
   </si>
   <si>
-    <t>(process_cmdline CONTAINS ['wmic'  AND list'  AND 'brief']])</t>
-  </si>
-  <si>
     <t>t1047, t1082</t>
+  </si>
+  <si>
+    <t>bcdedit-pid0001</t>
+  </si>
+  <si>
+    <t>Bcdedit Disable Auto Startup</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['bcdedit'  AND 'set' AND '{default}' AND 'recoverenabled'  AND 'no'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['bcdedit'  AND 'set' AND '{default}' AND 'bootstatuspolicy'  AND 'ignoreallfailures'])</t>
+  </si>
+  <si>
+    <t>Bcdedit Change Boot Related Failures</t>
+  </si>
+  <si>
+    <t>bcdedit-pid0002</t>
+  </si>
+  <si>
+    <t>t1562.009</t>
+  </si>
+  <si>
+    <t>bcdedit-pid0003</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['bcdedit'  AND 'set' AND 'safeboot' AND 'network'])</t>
+  </si>
+  <si>
+    <t>Bcdedit Safeboot With Networking</t>
+  </si>
+  <si>
+    <t>Bcdedit Safeboot With Minimal</t>
+  </si>
+  <si>
+    <t>bcdedit-pid0004</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['bcdedit'  AND 'set' AND 'safeboot'])</t>
+  </si>
+  <si>
+    <t>Bcdedit Safeboot</t>
+  </si>
+  <si>
+    <t>bcdedit-pid0005</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['vssadmin'  AND 'create' AND 'shadow' ])</t>
+  </si>
+  <si>
+    <t>Vssadmin Create Shadow Copy</t>
+  </si>
+  <si>
+    <t>vss-pid0003</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['vssadmin'  AND 'create' AND 'shadow'  AND 'for=C:'])</t>
+  </si>
+  <si>
+    <t>Vssadmin Create Shadow Copy of C Drive</t>
+  </si>
+  <si>
+    <t>vss-pid0004</t>
+  </si>
+  <si>
+    <t>Vssadmin Resize Shadow Storage</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['vssadmin'  AND 'resize' AND 'shadowstorage'  AND 'fmaxsize'])</t>
+  </si>
+  <si>
+    <t>vss-pid0005</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['powershell') AND (process_cmdline CONTAINS ['-EncodedCommand' OR ' -enc' OR '-e'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['powershell') AND (process_cmdline CONTAINS ['-EncodedCommand' OR ' -enc' OR '-e']) AND (process_cmdline CONTAINS ['-nop' OR '-NoProfile'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(process_cmdline CONTAINS ['powershell' AND 'exec' AND 'bypass') AND (process_cmdline CONTAINS ['-EncodedCommand' OR ' -enc' OR '-e']) </t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'SOFTWARE\Microsoft\Windows\CurrentVersion\RunOnce')</t>
+  </si>
+  <si>
+    <t>Reg Add &gt; RunOnce</t>
+  </si>
+  <si>
+    <t>Reg Add &gt; RunOnce With CMD Execution In Reg Data</t>
+  </si>
+  <si>
+    <t>reg-pid0028</t>
+  </si>
+  <si>
+    <t>reg-pid0029</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'SOFTWARE\Microsoft\Windows\CurrentVersion\RunOnce') AND (process_cmdline CONTAINS 'findstr')</t>
+  </si>
+  <si>
+    <t>Reg Add &gt; RunOnce With Findstr Validation In Key Data</t>
+  </si>
+  <si>
+    <t>reg-pid0030</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'SOFTWARE\Microsoft\Windows\CurrentVersion\RunOnce') AND (process_cmdline CONTAINS '/d cmd.exe /c'  )</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'SOFTWARE\Microsoft\Windows\CurrentVersion\RunOnce') AND (process_cmdline CONTAINS ['/f' AND '/d'])</t>
+  </si>
+  <si>
+    <t>Reg Add &gt; RunOnce Forced Data</t>
+  </si>
+  <si>
+    <t>reg-pid0031</t>
+  </si>
+  <si>
+    <t>Reg Add &gt; RunOnce User Appdata</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'SOFTWARE\Microsoft\Windows\CurrentVersion\RunOnce') AND (process_cmdline CONTAINS ['/f' AND '/d']) AND (process_cmdline CONTAINS 'appdata')</t>
+  </si>
+  <si>
+    <t>reg-pid0032</t>
+  </si>
+  <si>
+    <t>schtask-pid0001</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['schtasks'  AND '/create'  AND '/ru' AND 'system'])</t>
+  </si>
+  <si>
+    <t>Schtasks Created to Run As System</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['schtasks'  AND '/create'  AND '/ru' AND 'system' AND '/SC' AND 'ONSTART'])</t>
+  </si>
+  <si>
+    <t>Schtasks Created to Run As System On Startup</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['schtasks'  AND '/create'  AND '/ru' AND 'system' AND '/SC' AND 'ONSTART' AND '/F'])</t>
+  </si>
+  <si>
+    <t>Schtasks Created to Run As System On Startup with Forced Flag</t>
+  </si>
+  <si>
+    <t>schtask-pid0002</t>
+  </si>
+  <si>
+    <t>schtask-pid0003</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['schtasks'  AND '/create'  AND '/ru' AND 'system']) AND (process_cmdlind CONTAINS ['C:\Users\' AND \appdata'])</t>
+  </si>
+  <si>
+    <t>Schtasks Created to Run As System In Appdata</t>
+  </si>
+  <si>
+    <t>schtask-pid0004</t>
+  </si>
+  <si>
+    <t>Reg Delete &gt; Defender Run Key</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'delete']) AND (process_cmdline CONTAINS 'Software\Microsoft\Windows\CurrentVersion\Run') AND (process_cmdline CONTAINS 'Windows Defender')</t>
+  </si>
+  <si>
+    <t>reg-pid0033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reg Add &gt; Run </t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'SOFTWARE\Microsoft\Windows\CurrentVersion\Run')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'SOFTWARE\Microsoft\Windows\CurrentVersion\Run') AND (process_cmdline CONTAINS 'schtasks')</t>
+  </si>
+  <si>
+    <t>Reg Add Schtask to Run Key</t>
+  </si>
+  <si>
+    <t>reg-pid0035</t>
+  </si>
+  <si>
+    <t>reg-pid0034</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'SOFTWARE\Microsoft\Windows\CurrentVersion\Run') AND (process_cmdline CONTAINS ['/f' AND '/d']) AND (process_cmdline CONTAINS 'appdata')</t>
+  </si>
+  <si>
+    <t>reg-pid0036</t>
+  </si>
+  <si>
+    <t>Reg Add &gt; Run User Appdata</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'software\microsoft\windows nt\currentversion\winlogon') AND (process_cmdline CONTAINS 'userinit.exe,')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reg Add &gt; Winlogon Pointer To Additional File </t>
+  </si>
+  <si>
+    <t>c:\windows\system32\userinit.exe: This is the legitimate system process that handles the user environment (like loading the user's profile, running startup programs, etc.) when they log in. The attacker includes this to ensure the system still functions normally, making their modification less likely to be immediately noticed.</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'software\microsoft\windows nt\currentversion\winlogon') AND (process_cmdline CONTAINS 'defaultusername')</t>
+  </si>
+  <si>
+    <t>Reg Add &gt; Winlogon Overwrite Default User Name</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'software\microsoft\windows nt\currentversion\winlogon') AND (process_cmdline CONTAINS 'defualtpassword')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'software\microsoft\windows nt\currentversion\winlogon') AND (process_cmdline CONTAINS 'autoadminlogon')</t>
+  </si>
+  <si>
+    <t>Reg Add &gt; Winlogon Overwrite Default Password</t>
+  </si>
+  <si>
+    <t>Reg Add &gt; Winlogon Overwrite Auto Admin Logon</t>
+  </si>
+  <si>
+    <t>reg-pid0037</t>
+  </si>
+  <si>
+    <t>reg-pid0038</t>
+  </si>
+  <si>
+    <t>reg-pid0039</t>
+  </si>
+  <si>
+    <t>reg-pid0040</t>
+  </si>
+  <si>
+    <t>DefaultUserName is a legitimate value within the Winlogon key. When configured, it tells Windows which username to pre-fill on the login screen.</t>
+  </si>
+  <si>
+    <t>DefaultPassword is a legitimate value within the Winlogon key, but it is highly insecure to use in practice. When combined with DefaultUserName and AutoAdminLogon, it enables automatic login.</t>
+  </si>
+  <si>
+    <t>MaxMpxCt determines the maximum number of concurrent outstanding requests that a client can send to a server using the SMB protocol. A higher value allows for more simultaneous operations between the client and server.
+Security Implications:
+While modifying MaxMpxCt is a legitimate administrative action, setting it to its maximum value (65535) in an unauthorized context is highly suspicious and strongly indicative of malicious activity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reg Add &gt; MaxMpCt </t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'CurrentControlSet\Services\LanmanServer\Parameters') AND (process_cmdline CONTAINS 'MaxMpxCt')</t>
+  </si>
+  <si>
+    <t>reg-pid0041</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'CurrentControlSet\Control\Terminal Server') AND (process_cmdline CONTAINS ['DenyTSConnection' AND '0'])</t>
+  </si>
+  <si>
+    <t>reg-pid0042</t>
+  </si>
+  <si>
+    <t>Reg Add &gt; DenyTSConnections 0</t>
+  </si>
+  <si>
+    <t>Enabling Remote Desktop: This is a standard way for IT administrators to enable RDP on a server or workstation, allowing them to connect to it remotely for management, troubleshooting, or direct access.</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['reg' AND 'add']) AND (process_cmdline CONTAINS 'software\microsoft\windows nt\currentversion\winlogon\SpecialAccounts\UserList') AND (process_cmdline CONTAINS '0')</t>
+  </si>
+  <si>
+    <t>zero means account will be visible on logon screen</t>
+  </si>
+  <si>
+    <t>Reg Add &gt; Winlogon Special Accounts</t>
+  </si>
+  <si>
+    <t>reg-pid0043</t>
+  </si>
+  <si>
+    <t>System Info</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'systeminfo'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['wmic'  AND 'list'  AND 'brief'])</t>
+  </si>
+  <si>
+    <t>ping-pid0001</t>
+  </si>
+  <si>
+    <t>process_create-any</t>
+  </si>
+  <si>
+    <t>Ping</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'ping'])</t>
+  </si>
+  <si>
+    <t>bits-pid0001</t>
+  </si>
+  <si>
+    <t>t1197</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['bitsadmin' AND '/transfer'])</t>
+  </si>
+  <si>
+    <t>BITS Transfer</t>
+  </si>
+  <si>
+    <t>BITS Download</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['bitsadmin' AND '/transfer' AND '/download'])</t>
+  </si>
+  <si>
+    <t>bits-pid0002</t>
+  </si>
+  <si>
+    <t>BITS Job Remote HTTP</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['bitsadmin' AND 'http'])</t>
+  </si>
+  <si>
+    <t>BITS Job Create</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['bitsadmin' AND '/create'])</t>
+  </si>
+  <si>
+    <t>BITS PowerShell</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'Start-BitsTransfer')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['bitsadmin' AND '/addfile'])</t>
+  </si>
+  <si>
+    <t>BITS Addfile</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['bitsadmin' AND '/setnotifycmdline'])</t>
+  </si>
+  <si>
+    <t>BITS Notify</t>
+  </si>
+  <si>
+    <t>bits-pid0003</t>
+  </si>
+  <si>
+    <t>bits-pid0004</t>
+  </si>
+  <si>
+    <t>bits-pid0005</t>
+  </si>
+  <si>
+    <t>bits-pid0006</t>
+  </si>
+  <si>
+    <t>bits-pid0007</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['bitsadmin' AND '/resume'])</t>
+  </si>
+  <si>
+    <t>bits-pid0008</t>
+  </si>
+  <si>
+    <t>BITS Resume</t>
+  </si>
+  <si>
+    <t>BITS Complete</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['bitsadmin' AND '/complete'])</t>
+  </si>
+  <si>
+    <t>bits-pid0009</t>
+  </si>
+  <si>
+    <t>BITS desktopimgdownldr</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'desktopimgdownldr')</t>
+  </si>
+  <si>
+    <t>bits-pid0010</t>
+  </si>
+  <si>
+    <t>arp-pid0001</t>
+  </si>
+  <si>
+    <t>ARP -a</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['arp'  AND '-a' ])</t>
+  </si>
+  <si>
+    <t>certutil-pid0001</t>
+  </si>
+  <si>
+    <t>Certutil Urlcache Download Saved Via Split Flag</t>
+  </si>
+  <si>
+    <t>Certutil Verifyctl Download Saved Via Split Flag</t>
+  </si>
+  <si>
+    <t>certutil-pid0002</t>
+  </si>
+  <si>
+    <t>iisreset-pid0001</t>
+  </si>
+  <si>
+    <t>certutil-pid0003</t>
+  </si>
+  <si>
+    <t>Certutil Url Download</t>
+  </si>
+  <si>
+    <t>Certutil Encode</t>
+  </si>
+  <si>
+    <t>certutil-pid0004</t>
+  </si>
+  <si>
+    <t>certutil-pid0005</t>
+  </si>
+  <si>
+    <t>Certutil Decode</t>
+  </si>
+  <si>
+    <t>Iisreset Stop All IIS Services</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['iisreste'  AND 'stop'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['certutil'  AND '-uverifyctl'  AND '-split'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['certutil'  AND '-urlcache'  AND '-split'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['certutil'  AND '-url' )</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['certutil'  AND '-encode')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['certutil'  AND '-decode' )</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'Set-MpPreference') AND (process_command CONTAINS ['-dtrm' OR '-DisableRealTimeMonitoring']) AND (process_cmdline ['1' OR 'TRUE'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(process_cmdline CONTAINS ['powershell' AND 'Get-ADComputer' AND '-Filter *']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(process_cmdline CONTAINS ['powershell' AND 'Get-ADComputer' AND '-Filter *' AND 'Export-CSV']) </t>
+  </si>
+  <si>
+    <t>Pshell Get-ADComputer Filter All Export to CSV</t>
+  </si>
+  <si>
+    <t>Pshell Get-ADComputer Filter All</t>
+  </si>
+  <si>
+    <t>Pshell &gt; Encoded Command Exec Bypass</t>
+  </si>
+  <si>
+    <t>Pshell &gt; Encoded Command NOP</t>
+  </si>
+  <si>
+    <t>Pshell &gt; Encoded Command</t>
+  </si>
+  <si>
+    <t>Pshell &gt; Add MpPreference -ExclusionExtension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(process_cmdline CONTAINS ['powershell' AND 'Add-MpPreference' AND '-ExclusionExtension']) </t>
+  </si>
+  <si>
+    <t>netstat-pid0001</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['netstat' AND '-a'])</t>
+  </si>
+  <si>
+    <t>Netstat All</t>
+  </si>
+  <si>
+    <t>fsutil-pid0001</t>
+  </si>
+  <si>
+    <t>Fsutil Symlink</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['fsutil'  AND 'set'  AND 'symlinkevaluation' AND 'behavior'])</t>
+  </si>
+  <si>
+    <t>CMD Created Name Pipe</t>
+  </si>
+  <si>
+    <t>cmd-pid0011</t>
+  </si>
+  <si>
+    <t>CMD Copy To ADMIN Share</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['cmd' AND '/c' AND 'echo' AND ' &gt; ' AND '\\.\pipe\'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['cmd' AND 'copy' AND 'ADMIN$'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['cmd' AND 'copy' AND 'c$'])</t>
+  </si>
+  <si>
+    <t>CMD Copy To C Share</t>
+  </si>
+  <si>
+    <t>cmd-pid0012</t>
+  </si>
+  <si>
+    <t>cmd-pid0013</t>
+  </si>
+  <si>
+    <t>rundll32-pid0001</t>
+  </si>
+  <si>
+    <t>rundll32-pid0002</t>
+  </si>
+  <si>
+    <t>rundll32-pid0003</t>
+  </si>
+  <si>
+    <t>rundll32-pid0004</t>
+  </si>
+  <si>
+    <t>rundll32-pid0005</t>
+  </si>
+  <si>
+    <t>systeminfo-pid0001</t>
+  </si>
+  <si>
+    <t>Query User</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['query' AND 'user'])</t>
+  </si>
+  <si>
+    <t>query-pid0001</t>
+  </si>
+  <si>
+    <t>query-pid0002</t>
   </si>
 </sst>
 </file>
@@ -2758,20 +3300,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4681C3AD-C935-F043-82BB-FC0201BB7C44}" name="Table134910" displayName="Table134910" ref="A1:H231" totalsRowShown="0" dataDxfId="19">
-  <autoFilter ref="A1:H231" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H231">
-    <sortCondition ref="A1:A231"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4681C3AD-C935-F043-82BB-FC0201BB7C44}" name="Table134910" displayName="Table134910" ref="A1:H291" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H291" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H291">
+    <sortCondition ref="A1:A291"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6CF03195-25AB-C54D-B6B1-C2FBDC848BFA}" name="delta_pid" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{CDE26AA6-B7E1-6A44-BF76-846FC8A69358}" name="delta_did" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{F2027E93-F29D-4940-AED5-2E9807CC4D5A}" name="name" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{0E363F20-060C-FE42-A97B-DAA68D407589}" name="atk_tech" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{B3936DA7-B9EB-4A43-802A-2B35E7904453}" name="atk_subtech" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{1A2E8A87-4C8B-464D-A52E-D9965DD30554}" name="dpid_type" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{331291FA-8B2F-CA4E-9102-BAFA052C3883}" name="delta_pattern" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{04C88C30-31A3-CF45-AA83-2F3CA4030D92}" name="description" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{6CF03195-25AB-C54D-B6B1-C2FBDC848BFA}" name="delta_pid" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CDE26AA6-B7E1-6A44-BF76-846FC8A69358}" name="delta_did" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F2027E93-F29D-4940-AED5-2E9807CC4D5A}" name="name" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{0E363F20-060C-FE42-A97B-DAA68D407589}" name="atk_tech" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B3936DA7-B9EB-4A43-802A-2B35E7904453}" name="atk_subtech" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{1A2E8A87-4C8B-464D-A52E-D9965DD30554}" name="dpid_type" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{331291FA-8B2F-CA4E-9102-BAFA052C3883}" name="delta_pattern" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{04C88C30-31A3-CF45-AA83-2F3CA4030D92}" name="description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2783,11 +3325,11 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{488669B6-2C37-2646-B071-9B75C10A2383}" name="delta_pid"/>
     <tableColumn id="2" xr3:uid="{3A6DE005-B68B-0F4B-9996-43A7274B7880}" name="delta_did"/>
-    <tableColumn id="3" xr3:uid="{A55A330D-EDDC-4648-856A-DFAC3F7414CC}" name="name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{A55A330D-EDDC-4648-856A-DFAC3F7414CC}" name="name" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{AEA8BB35-018D-8E4E-A9C2-F72529462480}" name="atk_tech"/>
     <tableColumn id="6" xr3:uid="{32D8905D-1EE5-E345-A24C-45F314E7EFAD}" name="atk_subtech"/>
     <tableColumn id="7" xr3:uid="{CC5E8E5E-4E14-B648-94AC-FFEE038DF712}" name="dpid_type"/>
-    <tableColumn id="8" xr3:uid="{AAE7D1B1-996E-6540-B396-A527D65D3661}" name="delta_pattern" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{AAE7D1B1-996E-6540-B396-A527D65D3661}" name="delta_pattern" dataDxfId="18"/>
     <tableColumn id="9" xr3:uid="{DE7C6199-41A1-3B41-A0D5-B455D6A5ACD8}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2800,11 +3342,11 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{929B5003-8C24-6740-A7B4-CE674B387A4E}" name="delta_pid"/>
     <tableColumn id="2" xr3:uid="{F4D68548-D380-C544-9B73-EF722F7434CF}" name="delta_did"/>
-    <tableColumn id="3" xr3:uid="{D14584B8-BCF0-D74C-AE2E-CE4CF9AA7988}" name="name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D14584B8-BCF0-D74C-AE2E-CE4CF9AA7988}" name="name" dataDxfId="17"/>
     <tableColumn id="5" xr3:uid="{8A716950-1AA0-0B45-8CAF-D781916A0F66}" name="atk_tech"/>
     <tableColumn id="6" xr3:uid="{CD90C0CC-B447-1F49-AC8C-4635A74BAFDF}" name="atk_subtech"/>
     <tableColumn id="7" xr3:uid="{0E13C747-29D5-254D-A92C-D04442571F85}" name="dpid_type"/>
-    <tableColumn id="8" xr3:uid="{2DA1AF8F-18B4-7942-AD85-643AEFE67F86}" name="delta_pattern" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{2DA1AF8F-18B4-7942-AD85-643AEFE67F86}" name="delta_pattern" dataDxfId="16"/>
     <tableColumn id="9" xr3:uid="{F9EBB780-9802-184E-AEC3-E273366EDC6B}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2817,11 +3359,11 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BE863CF8-4350-8648-B5D8-FC03AE8A6764}" name="delta_pid"/>
     <tableColumn id="2" xr3:uid="{57EC4C55-4CDD-1749-B108-F98F495850B2}" name="delta_did"/>
-    <tableColumn id="3" xr3:uid="{7DD5A333-3149-BD4A-AF9B-B7C1E37A4542}" name="name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7DD5A333-3149-BD4A-AF9B-B7C1E37A4542}" name="name" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{93A2F9CA-5E91-8A4D-9493-863725CBC76B}" name="atk_tech"/>
     <tableColumn id="6" xr3:uid="{969E0FFD-5408-1449-801B-0726CEBDA540}" name="atk_subtech"/>
     <tableColumn id="7" xr3:uid="{146CAF21-33EA-EA46-BE37-980B20DE4906}" name="dpid_type"/>
-    <tableColumn id="8" xr3:uid="{AFA76793-BACD-924F-8EF8-078DC03D006B}" name="delta_pattern" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{AFA76793-BACD-924F-8EF8-078DC03D006B}" name="delta_pattern" dataDxfId="14"/>
     <tableColumn id="9" xr3:uid="{5354891A-2092-4540-A6AB-CB7F6EC7824A}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2834,11 +3376,11 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0D79E73B-2484-B646-85E3-9ED2FB4B885B}" name="delta_pid"/>
     <tableColumn id="2" xr3:uid="{00DFC5FB-A757-5E4D-991D-7DEB6CE489E9}" name="delta_did"/>
-    <tableColumn id="3" xr3:uid="{265F20CD-BBCF-404C-807C-69A0A52103EB}" name="name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{265F20CD-BBCF-404C-807C-69A0A52103EB}" name="name" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{04BB9D62-C93D-A448-BAE6-D631D099B3C5}" name="atk_tech"/>
-    <tableColumn id="6" xr3:uid="{2C3F8B28-10F2-9449-BCE2-2F695FDACCB9}" name="atk_subtech" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{2C3F8B28-10F2-9449-BCE2-2F695FDACCB9}" name="atk_subtech" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{3B649D4E-7596-F246-8ACF-89C4251F98F9}" name="dpid_type"/>
-    <tableColumn id="8" xr3:uid="{BD540EB3-3313-8F4E-918A-E4DEF99504DD}" name="delta_pattern" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{BD540EB3-3313-8F4E-918A-E4DEF99504DD}" name="delta_pattern" dataDxfId="11"/>
     <tableColumn id="9" xr3:uid="{F5455919-24C2-804E-82B3-4785581FBF8C}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2851,11 +3393,11 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F66A96C9-E4C4-C74A-BE1E-57A4BD955704}" name="delta_pid"/>
     <tableColumn id="2" xr3:uid="{5D449BBB-4F07-9B4A-B26E-60450BBE1F20}" name="delta_did"/>
-    <tableColumn id="3" xr3:uid="{95387166-48DC-FA45-A7CA-E8ED8546BA90}" name="name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{95387166-48DC-FA45-A7CA-E8ED8546BA90}" name="name" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{F1E05993-BACC-9A4C-87FB-D2466361DB09}" name="atk_tech"/>
     <tableColumn id="6" xr3:uid="{206EDBE6-BDF1-D341-AFAA-B836846958E7}" name="atk_subtech"/>
     <tableColumn id="7" xr3:uid="{567202AE-6658-E947-9EA9-3165FF8F7028}" name="dpid_type"/>
-    <tableColumn id="8" xr3:uid="{9A18529D-67B9-6C45-AB68-B3D284E42CB7}" name="delta_pattern" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{9A18529D-67B9-6C45-AB68-B3D284E42CB7}" name="delta_pattern" dataDxfId="9"/>
     <tableColumn id="9" xr3:uid="{C7509013-E14D-F64A-925E-867574B83C8D}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3179,11 +3721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AE47E6-308D-7940-AFE8-3D3C16A77AE0}">
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3226,2735 +3768,2675 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>820</v>
+        <v>988</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>408</v>
-      </c>
+        <v>989</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>407</v>
+        <v>990</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>821</v>
+        <v>857</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>411</v>
+        <v>858</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>408</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>410</v>
+        <v>859</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>822</v>
+        <v>862</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>412</v>
+        <v>861</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>408</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>413</v>
+        <v>860</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>823</v>
+        <v>864</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>415</v>
+        <v>866</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>408</v>
+        <v>863</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>414</v>
+        <v>865</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>824</v>
+        <v>868</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>417</v>
+        <v>867</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>422</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>423</v>
+        <v>863</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>416</v>
+        <v>865</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>825</v>
+        <v>871</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>420</v>
+        <v>870</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>422</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>423</v>
+        <v>863</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>418</v>
+        <v>869</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>826</v>
+        <v>957</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>421</v>
+        <v>960</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>423</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>419</v>
+        <v>959</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>827</v>
+        <v>963</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>828</v>
+        <v>961</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>408</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>832</v>
+        <v>962</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>830</v>
+        <v>974</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>835</v>
+        <v>964</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>408</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>833</v>
+        <v>965</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>831</v>
+        <v>975</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>829</v>
+        <v>966</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>408</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>834</v>
+        <v>967</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>453</v>
+        <v>976</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>451</v>
+        <v>968</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>452</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>449</v>
+        <v>969</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>572</v>
+        <v>977</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>454</v>
+        <v>971</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>456</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>457</v>
+        <v>970</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>573</v>
+        <v>978</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>460</v>
+        <v>973</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>456</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>458</v>
+        <v>972</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>574</v>
+        <v>980</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>461</v>
+        <v>981</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>456</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>459</v>
+        <v>979</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>575</v>
+        <v>984</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>463</v>
+        <v>982</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>456</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>462</v>
+        <v>983</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>576</v>
+        <v>987</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>464</v>
+        <v>985</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>456</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>465</v>
+        <v>986</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>577</v>
+        <v>991</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>467</v>
+        <v>992</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>456</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>466</v>
+        <v>1005</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>578</v>
+        <v>994</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>358</v>
+        <v>993</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>357</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>359</v>
+        <v>1004</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>579</v>
+        <v>996</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>360</v>
+        <v>997</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>357</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>361</v>
+        <v>1006</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>580</v>
+        <v>999</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>362</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>357</v>
-      </c>
+        <v>998</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>364</v>
+        <v>1007</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>581</v>
+        <v>1000</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>357</v>
-      </c>
+        <v>1001</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>366</v>
+        <v>1008</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>642</v>
+        <v>814</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>643</v>
+        <v>409</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>644</v>
+        <v>407</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>660</v>
+        <v>815</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>661</v>
+        <v>411</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>663</v>
+        <v>410</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>665</v>
+        <v>816</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>670</v>
+        <v>412</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>664</v>
+        <v>413</v>
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>667</v>
+        <v>817</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>669</v>
+        <v>415</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>666</v>
+        <v>414</v>
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>671</v>
+        <v>818</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>668</v>
+        <v>417</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>664</v>
+        <v>416</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>655</v>
+        <v>819</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>652</v>
+        <v>420</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>144</v>
+        <v>422</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>145</v>
+        <v>423</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>651</v>
+        <v>418</v>
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>656</v>
+        <v>820</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>658</v>
+        <v>421</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>144</v>
+        <v>422</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>145</v>
+        <v>423</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>653</v>
+        <v>419</v>
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>657</v>
+        <v>821</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>659</v>
+        <v>822</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>144</v>
+        <v>830</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>145</v>
+        <v>408</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>654</v>
+        <v>826</v>
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>674</v>
+        <v>824</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+        <v>829</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>672</v>
+        <v>827</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>641</v>
+        <v>825</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>676</v>
+        <v>823</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>144</v>
+        <v>830</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>675</v>
+        <v>828</v>
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>679</v>
+        <v>1026</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>357</v>
-      </c>
+        <v>1025</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>677</v>
+        <v>1028</v>
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>683</v>
+        <v>1032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>357</v>
-      </c>
+        <v>1027</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>682</v>
+        <v>1029</v>
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>684</v>
+        <v>1033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>357</v>
-      </c>
+        <v>1031</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>677</v>
+        <v>1030</v>
       </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>685</v>
+        <v>453</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>687</v>
+        <v>451</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>357</v>
+        <v>452</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>686</v>
+        <v>449</v>
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>688</v>
+        <v>572</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>690</v>
+        <v>454</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>144</v>
+        <v>455</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>357</v>
+        <v>456</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>691</v>
+        <v>457</v>
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>689</v>
+        <v>573</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>695</v>
+        <v>460</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>144</v>
+        <v>455</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>357</v>
+        <v>456</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>692</v>
+        <v>458</v>
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>694</v>
+        <v>574</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>696</v>
+        <v>461</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>144</v>
+        <v>455</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>357</v>
+        <v>456</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>693</v>
+        <v>459</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>698</v>
+        <v>575</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>699</v>
+        <v>463</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>144</v>
+        <v>455</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>357</v>
+        <v>456</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>697</v>
+        <v>462</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>701</v>
+        <v>576</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>700</v>
+        <v>464</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>58</v>
+        <v>455</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>59</v>
+        <v>456</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>703</v>
+        <v>465</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>702</v>
+        <v>577</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>707</v>
+        <v>467</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>704</v>
+        <v>466</v>
       </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>706</v>
+        <v>578</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="F43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>705</v>
+        <v>359</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>708</v>
+        <v>579</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>712</v>
+        <v>360</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>713</v>
+        <v>357</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>709</v>
+        <v>361</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>710</v>
+        <v>580</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>10</v>
+        <v>362</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>714</v>
+        <v>363</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>713</v>
+        <v>357</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>715</v>
+        <v>364</v>
       </c>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>718</v>
+        <v>581</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>716</v>
+        <v>367</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>713</v>
+        <v>357</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>717</v>
+        <v>366</v>
       </c>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>721</v>
+        <v>642</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>720</v>
+        <v>643</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>713</v>
+        <v>357</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>719</v>
+        <v>644</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>723</v>
+        <v>660</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>724</v>
+        <v>661</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>713</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>722</v>
+        <v>663</v>
       </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>726</v>
+        <v>665</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>728</v>
+        <v>670</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>713</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>725</v>
+        <v>664</v>
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>727</v>
+        <v>667</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>729</v>
+        <v>669</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>713</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>730</v>
+        <v>666</v>
       </c>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>732</v>
+        <v>671</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>733</v>
+        <v>668</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>713</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>731</v>
+        <v>664</v>
       </c>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>736</v>
+        <v>655</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>735</v>
+        <v>652</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>713</v>
+        <v>145</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>734</v>
+        <v>651</v>
       </c>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>27</v>
+        <v>658</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>19</v>
+        <v>653</v>
       </c>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>28</v>
+        <v>659</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>11</v>
+        <v>654</v>
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>584</v>
+        <v>1022</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>1023</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>46</v>
+        <v>1024</v>
       </c>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>585</v>
+        <v>995</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>1002</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>47</v>
+        <v>1003</v>
       </c>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>586</v>
+        <v>674</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>48</v>
+        <v>672</v>
       </c>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>587</v>
+        <v>641</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>32</v>
+        <v>676</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>22</v>
+        <v>675</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>588</v>
+        <v>679</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>33</v>
+        <v>678</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>677</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>589</v>
+        <v>683</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>10</v>
+        <v>680</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>34</v>
+        <v>681</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>13</v>
+        <v>682</v>
       </c>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>590</v>
+        <v>684</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>35</v>
+        <v>678</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>14</v>
+        <v>677</v>
       </c>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>591</v>
+        <v>685</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>36</v>
+        <v>687</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>20</v>
+        <v>686</v>
       </c>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>592</v>
+        <v>688</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>49</v>
+        <v>690</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>50</v>
+        <v>691</v>
       </c>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>593</v>
+        <v>689</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>37</v>
+        <v>695</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>51</v>
+        <v>692</v>
       </c>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>594</v>
+        <v>694</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>38</v>
+        <v>696</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>24</v>
+        <v>357</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>23</v>
+        <v>693</v>
       </c>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>595</v>
+        <v>698</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>10</v>
+        <v>680</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>39</v>
+        <v>699</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>24</v>
+        <v>357</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>25</v>
+        <v>697</v>
       </c>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>596</v>
+        <v>701</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>40</v>
+        <v>700</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>26</v>
+        <v>703</v>
       </c>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>597</v>
+        <v>702</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>41</v>
+        <v>707</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>42</v>
+        <v>704</v>
       </c>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>598</v>
+        <v>706</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>54</v>
+        <v>711</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>45</v>
+        <v>705</v>
       </c>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>599</v>
+        <v>708</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>52</v>
+        <v>712</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>43</v>
+        <v>455</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>55</v>
+        <v>713</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>72</v>
+        <v>709</v>
       </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>600</v>
+        <v>710</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>53</v>
+        <v>714</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>43</v>
+        <v>455</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>44</v>
+        <v>713</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>71</v>
+        <v>715</v>
       </c>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>601</v>
+        <v>718</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>74</v>
+        <v>716</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>17</v>
+        <v>455</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>73</v>
+        <v>713</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>70</v>
+        <v>717</v>
       </c>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>602</v>
+        <v>721</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>81</v>
+        <v>720</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>455</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>73</v>
+        <v>713</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>80</v>
+        <v>719</v>
       </c>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>603</v>
+        <v>723</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>83</v>
+        <v>724</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>17</v>
+        <v>455</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>73</v>
+        <v>713</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>82</v>
+        <v>722</v>
       </c>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>604</v>
+        <v>726</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>75</v>
+        <v>728</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>17</v>
+        <v>455</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>18</v>
+        <v>713</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>76</v>
+        <v>725</v>
       </c>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>605</v>
+        <v>727</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>78</v>
+        <v>729</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" s="1"/>
+        <v>455</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>713</v>
+      </c>
       <c r="F76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>79</v>
+        <v>730</v>
       </c>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>606</v>
+        <v>732</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>57</v>
+        <v>733</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>58</v>
+        <v>455</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>59</v>
+        <v>713</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>56</v>
+        <v>731</v>
       </c>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>607</v>
+        <v>736</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>64</v>
+        <v>735</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>58</v>
+        <v>455</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>59</v>
+        <v>713</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>63</v>
+        <v>734</v>
       </c>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>368</v>
+        <v>39</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>373</v>
+        <v>25</v>
       </c>
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>370</v>
+        <v>41</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>374</v>
+        <v>54</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>376</v>
+        <v>45</v>
       </c>
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>375</v>
+        <v>52</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>377</v>
+        <v>72</v>
       </c>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>379</v>
+        <v>53</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>378</v>
+        <v>71</v>
       </c>
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>309</v>
+        <v>73</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>382</v>
+        <v>81</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>309</v>
+        <v>73</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>309</v>
+        <v>73</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>389</v>
+        <v>75</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>309</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>391</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>392</v>
+        <v>57</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>309</v>
+        <v>59</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>391</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>394</v>
+        <v>64</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>309</v>
+        <v>59</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>393</v>
+        <v>63</v>
       </c>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>646</v>
+        <v>608</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E105" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>401</v>
+        <v>66</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E106" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>396</v>
+        <v>61</v>
       </c>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>402</v>
+        <v>67</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E107" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>397</v>
+        <v>62</v>
       </c>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>649</v>
+        <v>611</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>403</v>
+        <v>69</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E108" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>398</v>
+        <v>68</v>
       </c>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>650</v>
+        <v>612</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>404</v>
+        <v>84</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E109" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>737</v>
+        <v>613</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>738</v>
+        <v>85</v>
       </c>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>741</v>
+        <v>614</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>742</v>
+        <v>90</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>745</v>
+        <v>615</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>746</v>
+        <v>93</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>748</v>
+        <v>616</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>740</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>747</v>
+        <v>95</v>
       </c>
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>314</v>
+        <v>617</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>315</v>
+        <v>618</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>316</v>
+        <v>619</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>317</v>
+        <v>620</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>274</v>
+        <v>65</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>58</v>
@@ -5966,1749 +6448,1739 @@
         <v>5</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>318</v>
+        <v>621</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>275</v>
+        <v>373</v>
       </c>
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>319</v>
+        <v>622</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>280</v>
+        <v>369</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>284</v>
+        <v>372</v>
       </c>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>321</v>
+        <v>624</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>322</v>
+        <v>625</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>285</v>
+        <v>375</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>287</v>
+        <v>377</v>
       </c>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>323</v>
+        <v>626</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>324</v>
+        <v>627</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>355</v>
+        <v>58</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>288</v>
+        <v>380</v>
       </c>
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>325</v>
+        <v>628</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>292</v>
+        <v>382</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>291</v>
+        <v>383</v>
       </c>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>326</v>
+        <v>629</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>293</v>
+        <v>384</v>
       </c>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>327</v>
+        <v>630</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>297</v>
+        <v>58</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H127" s="1"/>
-    </row>
-    <row r="128" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>328</v>
+        <v>631</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>297</v>
+        <v>58</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>329</v>
+        <v>632</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>299</v>
+        <v>392</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>297</v>
+        <v>58</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>330</v>
+        <v>645</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>297</v>
+        <v>58</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>302</v>
+        <v>393</v>
       </c>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>331</v>
+        <v>1019</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>1021</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
       <c r="G131" s="1" t="s">
-        <v>305</v>
+        <v>1020</v>
       </c>
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>332</v>
+        <v>646</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>309</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>333</v>
+        <v>647</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>308</v>
+        <v>401</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>309</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>334</v>
+        <v>648</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>313</v>
+        <v>406</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>837</v>
+        <v>397</v>
       </c>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>335</v>
+        <v>649</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>838</v>
+        <v>403</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>839</v>
+        <v>398</v>
       </c>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>336</v>
+        <v>650</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>842</v>
+        <v>404</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>841</v>
+        <v>399</v>
       </c>
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>337</v>
+        <v>737</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>844</v>
+        <v>739</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>277</v>
+        <v>740</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>845</v>
+        <v>738</v>
       </c>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>338</v>
+        <v>741</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>843</v>
+        <v>742</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>277</v>
+        <v>740</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>846</v>
+        <v>743</v>
       </c>
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>339</v>
+        <v>745</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>847</v>
+        <v>746</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>277</v>
+        <v>740</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>850</v>
+        <v>744</v>
       </c>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>340</v>
+        <v>748</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>848</v>
+        <v>749</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>277</v>
+        <v>740</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>849</v>
+        <v>747</v>
       </c>
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>818</v>
+        <v>953</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>10</v>
+        <v>954</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>817</v>
+        <v>956</v>
       </c>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>809</v>
+        <v>314</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>810</v>
+        <v>266</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>357</v>
+        <v>59</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>808</v>
+        <v>269</v>
       </c>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>812</v>
+        <v>315</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>813</v>
+        <v>267</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>357</v>
+        <v>59</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>811</v>
+        <v>271</v>
       </c>
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>543</v>
+        <v>316</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>143</v>
+        <v>272</v>
       </c>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>544</v>
+        <v>317</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>148</v>
+        <v>274</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>545</v>
+        <v>318</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="H146" s="1"/>
     </row>
     <row r="147" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>546</v>
+        <v>319</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="H147" s="1"/>
     </row>
     <row r="148" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>547</v>
+        <v>320</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="H148" s="1"/>
     </row>
     <row r="149" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>548</v>
+        <v>321</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>549</v>
+        <v>322</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>550</v>
+        <v>323</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>156</v>
+        <v>286</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="H151" s="1"/>
     </row>
     <row r="152" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>551</v>
+        <v>324</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>59</v>
+        <v>356</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>552</v>
+        <v>325</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="H153" s="1"/>
     </row>
     <row r="154" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>553</v>
+        <v>326</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="H154" s="1"/>
     </row>
     <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>554</v>
+        <v>327</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>160</v>
+        <v>295</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="H155" s="1"/>
     </row>
     <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>555</v>
+        <v>328</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="H156" s="1"/>
     </row>
     <row r="157" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>556</v>
+        <v>329</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>174</v>
+        <v>834</v>
       </c>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>557</v>
+        <v>330</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>558</v>
+        <v>331</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>172</v>
+        <v>305</v>
       </c>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>559</v>
+        <v>332</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>59</v>
+        <v>309</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="H160" s="1"/>
     </row>
     <row r="161" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>560</v>
+        <v>333</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>59</v>
+        <v>309</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>561</v>
+        <v>334</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E162" s="1"/>
       <c r="F162" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>169</v>
+        <v>831</v>
       </c>
       <c r="H162" s="1"/>
     </row>
     <row r="163" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>562</v>
+        <v>335</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>184</v>
+        <v>832</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>168</v>
+        <v>833</v>
       </c>
       <c r="H163" s="1"/>
     </row>
     <row r="164" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>563</v>
+        <v>336</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>186</v>
+        <v>836</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>185</v>
+        <v>835</v>
       </c>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>564</v>
+        <v>337</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>188</v>
+        <v>838</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>187</v>
+        <v>839</v>
       </c>
       <c r="H165" s="1"/>
     </row>
     <row r="166" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>565</v>
+        <v>338</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
+        <v>837</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="F166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>189</v>
+        <v>840</v>
       </c>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>566</v>
+        <v>339</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
+        <v>841</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="F167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>195</v>
+        <v>844</v>
       </c>
       <c r="H167" s="1"/>
     </row>
     <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>567</v>
+        <v>340</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
+        <v>842</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="F168" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>194</v>
+        <v>843</v>
       </c>
       <c r="H168" s="1"/>
     </row>
     <row r="169" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>568</v>
+        <v>341</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>193</v>
+        <v>1016</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>196</v>
+        <v>881</v>
       </c>
       <c r="H169" s="1"/>
     </row>
     <row r="170" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>569</v>
+        <v>342</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
+        <v>1015</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="F170" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>197</v>
+        <v>882</v>
       </c>
       <c r="H170" s="1"/>
     </row>
     <row r="171" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>751</v>
+        <v>343</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>753</v>
+        <v>1014</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>455</v>
+        <v>276</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>752</v>
+        <v>277</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>750</v>
+        <v>883</v>
       </c>
       <c r="H171" s="1"/>
     </row>
     <row r="172" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>755</v>
+        <v>344</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>757</v>
+        <v>265</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>455</v>
+        <v>58</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>752</v>
+        <v>59</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>754</v>
+        <v>1009</v>
       </c>
       <c r="H172" s="1"/>
     </row>
     <row r="173" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>756</v>
+        <v>345</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>752</v>
-      </c>
+        <v>1013</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
       <c r="F173" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>760</v>
+        <v>1010</v>
       </c>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>758</v>
+        <v>346</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>752</v>
-      </c>
+        <v>1012</v>
+      </c>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
       <c r="F174" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>770</v>
+        <v>1011</v>
       </c>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>759</v>
+        <v>347</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>775</v>
+        <v>1017</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>455</v>
+        <v>58</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>752</v>
+        <v>59</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>774</v>
+        <v>1018</v>
       </c>
       <c r="H175" s="1"/>
     </row>
     <row r="176" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>764</v>
+        <v>1042</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>762</v>
+        <v>813</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>752</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E176" s="1"/>
       <c r="F176" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>763</v>
+        <v>812</v>
       </c>
       <c r="H176" s="1"/>
     </row>
     <row r="177" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>767</v>
+        <v>1043</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>752</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
       <c r="F177" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>765</v>
+        <v>1041</v>
       </c>
       <c r="H177" s="1"/>
     </row>
     <row r="178" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>768</v>
+        <v>805</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>752</v>
+        <v>357</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="H178" s="1"/>
     </row>
     <row r="179" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>778</v>
+        <v>807</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>773</v>
+        <v>808</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>752</v>
+        <v>357</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>779</v>
+        <v>543</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>776</v>
+        <v>142</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>752</v>
+        <v>145</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>777</v>
+        <v>143</v>
       </c>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>781</v>
+        <v>544</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>780</v>
+        <v>148</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>752</v>
+        <v>145</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>806</v>
+        <v>146</v>
       </c>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>784</v>
+        <v>545</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>785</v>
+        <v>149</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>752</v>
+        <v>145</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>782</v>
+        <v>147</v>
       </c>
       <c r="H182" s="1"/>
     </row>
     <row r="183" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>786</v>
+        <v>546</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>788</v>
+        <v>150</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>752</v>
+        <v>151</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>787</v>
+        <v>152</v>
       </c>
       <c r="H183" s="1"/>
     </row>
     <row r="184" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>790</v>
+        <v>547</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>791</v>
+        <v>153</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>455</v>
+        <v>58</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>752</v>
+        <v>59</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>789</v>
+        <v>183</v>
       </c>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>815</v>
+        <v>548</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>816</v>
+        <v>154</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E185" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F185" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>814</v>
+        <v>182</v>
       </c>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>793</v>
+        <v>549</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>794</v>
+        <v>155</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>357</v>
+        <v>59</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>792</v>
+        <v>181</v>
       </c>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>796</v>
+        <v>550</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>797</v>
+        <v>156</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>357</v>
+        <v>59</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>795</v>
+        <v>180</v>
       </c>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>798</v>
+        <v>551</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>799</v>
+        <v>157</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>357</v>
+        <v>59</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>805</v>
+        <v>179</v>
       </c>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>801</v>
+        <v>552</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>802</v>
+        <v>158</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>357</v>
+        <v>59</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>800</v>
+        <v>178</v>
       </c>
       <c r="H189" s="1"/>
     </row>
     <row r="190" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>803</v>
+        <v>553</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>804</v>
+        <v>159</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>357</v>
+        <v>59</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>807</v>
+        <v>177</v>
       </c>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>469</v>
+        <v>554</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>58</v>
@@ -7720,19 +8192,19 @@
         <v>5</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>468</v>
+        <v>176</v>
       </c>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>472</v>
+        <v>555</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>473</v>
+        <v>161</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>58</v>
@@ -7744,19 +8216,19 @@
         <v>5</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>471</v>
+        <v>175</v>
       </c>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>480</v>
+        <v>556</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>474</v>
+        <v>162</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>58</v>
@@ -7768,19 +8240,19 @@
         <v>5</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>475</v>
+        <v>174</v>
       </c>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>481</v>
+        <v>557</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>478</v>
+        <v>163</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>58</v>
@@ -7792,19 +8264,19 @@
         <v>5</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>476</v>
+        <v>173</v>
       </c>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>482</v>
+        <v>558</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>479</v>
+        <v>164</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>58</v>
@@ -7816,19 +8288,19 @@
         <v>5</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>477</v>
+        <v>172</v>
       </c>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>485</v>
+        <v>559</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>487</v>
+        <v>165</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>58</v>
@@ -7840,19 +8312,19 @@
         <v>5</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>483</v>
+        <v>171</v>
       </c>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>486</v>
+        <v>560</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>488</v>
+        <v>166</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>58</v>
@@ -7864,19 +8336,19 @@
         <v>5</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>484</v>
+        <v>170</v>
       </c>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>493</v>
+        <v>561</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>491</v>
+        <v>167</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>58</v>
@@ -7888,19 +8360,19 @@
         <v>5</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>489</v>
+        <v>169</v>
       </c>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>494</v>
+        <v>562</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>492</v>
+        <v>184</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>58</v>
@@ -7912,19 +8384,19 @@
         <v>5</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>490</v>
+        <v>168</v>
       </c>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>496</v>
+        <v>186</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>58</v>
@@ -7936,19 +8408,19 @@
         <v>5</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>495</v>
+        <v>185</v>
       </c>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>497</v>
+        <v>188</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>58</v>
@@ -7960,91 +8432,79 @@
         <v>5</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>502</v>
+        <v>187</v>
       </c>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
       <c r="F202" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>500</v>
+        <v>189</v>
       </c>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
       <c r="F203" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>501</v>
+        <v>195</v>
       </c>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
       <c r="F204" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>507</v>
+        <v>194</v>
       </c>
       <c r="H204" s="1"/>
     </row>
     <row r="205" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>510</v>
+        <v>193</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>58</v>
@@ -8056,259 +8516,219 @@
         <v>5</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>508</v>
+        <v>196</v>
       </c>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>515</v>
+        <v>569</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
       <c r="F206" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>513</v>
+        <v>197</v>
       </c>
       <c r="H206" s="1"/>
     </row>
     <row r="207" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>516</v>
+        <v>887</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
       <c r="F207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>514</v>
+        <v>884</v>
       </c>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>523</v>
+        <v>888</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
       <c r="F208" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>519</v>
+        <v>892</v>
       </c>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>524</v>
+        <v>891</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
       <c r="F209" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>520</v>
+        <v>889</v>
       </c>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>529</v>
+        <v>895</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
       <c r="F210" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>525</v>
+        <v>893</v>
       </c>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>530</v>
+        <v>898</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>896</v>
+      </c>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
       <c r="F211" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>526</v>
+        <v>897</v>
       </c>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>533</v>
+        <v>913</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>911</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
       <c r="F212" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>531</v>
+        <v>912</v>
       </c>
       <c r="H212" s="1"/>
     </row>
     <row r="213" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>534</v>
+        <v>919</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>914</v>
+      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
       <c r="F213" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>532</v>
+        <v>915</v>
       </c>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>537</v>
+        <v>918</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>917</v>
+      </c>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
       <c r="F214" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>535</v>
+        <v>916</v>
       </c>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>538</v>
+        <v>921</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>922</v>
+      </c>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
       <c r="F215" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>536</v>
+        <v>920</v>
       </c>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>540</v>
+        <v>932</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>541</v>
+        <v>924</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -8316,341 +8736,1727 @@
         <v>5</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H216" s="1"/>
-    </row>
-    <row r="217" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>447</v>
+        <v>933</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>927</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
       <c r="F217" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="H217" s="1"/>
-    </row>
-    <row r="218" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>926</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>570</v>
+        <v>934</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>442</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H218" s="1"/>
-    </row>
-    <row r="219" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>928</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>571</v>
+        <v>935</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>442</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H219" s="1"/>
-    </row>
-    <row r="220" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>929</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>633</v>
+        <v>941</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>427</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H220" s="1"/>
-    </row>
-    <row r="221" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>940</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>10</v>
+        <v>943</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>428</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H221" s="1"/>
-    </row>
-    <row r="222" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>942</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>10</v>
+        <v>949</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>428</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="H222" s="1"/>
+        <v>946</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="223" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>636</v>
+        <v>751</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>431</v>
+        <v>753</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E223" s="1"/>
+        <v>455</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>752</v>
+      </c>
       <c r="F223" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>432</v>
+        <v>750</v>
       </c>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>637</v>
+        <v>755</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>435</v>
+        <v>757</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E224" s="1"/>
+        <v>455</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>752</v>
+      </c>
       <c r="F224" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>434</v>
+        <v>754</v>
       </c>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>638</v>
+        <v>756</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>437</v>
+        <v>761</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E225" s="1"/>
+        <v>455</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>752</v>
+      </c>
       <c r="F225" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>436</v>
+        <v>760</v>
       </c>
       <c r="H225" s="1"/>
     </row>
     <row r="226" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>639</v>
+        <v>758</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>439</v>
+        <v>771</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E226" s="1"/>
+        <v>455</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>752</v>
+      </c>
       <c r="F226" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>438</v>
+        <v>770</v>
       </c>
       <c r="H226" s="1"/>
     </row>
     <row r="227" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="H229" s="1"/>
+    </row>
+    <row r="230" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H230" s="1"/>
+    </row>
+    <row r="231" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="H231" s="1"/>
+    </row>
+    <row r="232" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="H232" s="1"/>
+    </row>
+    <row r="233" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H233" s="1"/>
+    </row>
+    <row r="234" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="H234" s="1"/>
+    </row>
+    <row r="235" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="H235" s="1"/>
+    </row>
+    <row r="236" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H236" s="1"/>
+    </row>
+    <row r="237" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H237" s="1"/>
+    </row>
+    <row r="238" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="H238" s="1"/>
+    </row>
+    <row r="239" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="H239" s="1"/>
+    </row>
+    <row r="240" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H240" s="1"/>
+    </row>
+    <row r="241" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H241" s="1"/>
+    </row>
+    <row r="242" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H242" s="1"/>
+    </row>
+    <row r="243" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H243" s="1"/>
+    </row>
+    <row r="244" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H244" s="1"/>
+    </row>
+    <row r="245" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H245" s="1"/>
+    </row>
+    <row r="246" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H246" s="1"/>
+    </row>
+    <row r="247" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H247" s="1"/>
+    </row>
+    <row r="248" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H248" s="1"/>
+    </row>
+    <row r="249" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H249" s="1"/>
+    </row>
+    <row r="250" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H250" s="1"/>
+    </row>
+    <row r="251" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H251" s="1"/>
+    </row>
+    <row r="252" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H252" s="1"/>
+    </row>
+    <row r="253" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H253" s="1"/>
+    </row>
+    <row r="254" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H254" s="1"/>
+    </row>
+    <row r="255" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H255" s="1"/>
+    </row>
+    <row r="256" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H256" s="1"/>
+    </row>
+    <row r="257" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H257" s="1"/>
+    </row>
+    <row r="258" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H258" s="1"/>
+    </row>
+    <row r="259" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H259" s="1"/>
+    </row>
+    <row r="260" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H260" s="1"/>
+    </row>
+    <row r="261" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H261" s="1"/>
+    </row>
+    <row r="262" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H262" s="1"/>
+    </row>
+    <row r="263" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H263" s="1"/>
+    </row>
+    <row r="264" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H264" s="1"/>
+    </row>
+    <row r="265" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H265" s="1"/>
+    </row>
+    <row r="266" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H266" s="1"/>
+    </row>
+    <row r="267" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H267" s="1"/>
+    </row>
+    <row r="268" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H268" s="1"/>
+    </row>
+    <row r="269" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="H269" s="1"/>
+    </row>
+    <row r="270" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H270" s="1"/>
+    </row>
+    <row r="271" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="H271" s="1"/>
+    </row>
+    <row r="272" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H272" s="1"/>
+    </row>
+    <row r="273" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H273" s="1"/>
+    </row>
+    <row r="274" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="H274" s="1"/>
+    </row>
+    <row r="275" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H275" s="1"/>
+    </row>
+    <row r="276" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H276" s="1"/>
+    </row>
+    <row r="277" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="H277" s="1"/>
+    </row>
+    <row r="278" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H278" s="1"/>
+    </row>
+    <row r="279" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="H279" s="1"/>
+    </row>
+    <row r="280" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H280" s="1"/>
+    </row>
+    <row r="281" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H281" s="1"/>
+    </row>
+    <row r="282" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H282" s="1"/>
+    </row>
+    <row r="283" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H283" s="1"/>
+    </row>
+    <row r="284" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H284" s="1"/>
+    </row>
+    <row r="285" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H285" s="1"/>
+    </row>
+    <row r="286" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H286" s="1"/>
+    </row>
+    <row r="287" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C227" s="1" t="s">
+      <c r="B287" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D287" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G227" s="1" t="s">
+      <c r="E287" s="1"/>
+      <c r="F287" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G287" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H227" s="1"/>
-    </row>
-    <row r="228" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
+      <c r="H287" s="1"/>
+    </row>
+    <row r="288" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="H288" s="1"/>
+    </row>
+    <row r="289" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="H289" s="1"/>
+    </row>
+    <row r="290" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C228" s="1" t="s">
+      <c r="D290" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G290" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="H228" s="1"/>
-    </row>
-    <row r="229" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
+      <c r="H290" s="1"/>
+    </row>
+    <row r="291" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C229" s="1" t="s">
+      <c r="B291" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G229" s="1" t="s">
+      <c r="D291" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="H229" s="1"/>
-    </row>
-    <row r="230" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="H230" s="1"/>
-    </row>
-    <row r="231" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="H231" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="H291" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9719,7 +11525,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:H42"/>
     </sheetView>
   </sheetViews>
